--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>139.14150334364</v>
+        <v>0.2548253333333333</v>
       </c>
       <c r="H2">
-        <v>139.14150334364</v>
+        <v>0.764476</v>
       </c>
       <c r="I2">
-        <v>0.995266720327071</v>
+        <v>0.00181063274871081</v>
       </c>
       <c r="J2">
-        <v>0.995266720327071</v>
+        <v>0.00181063274871081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N2">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q2">
-        <v>6654.134338661161</v>
+        <v>66.60629735620934</v>
       </c>
       <c r="R2">
-        <v>6654.134338661161</v>
+        <v>599.4566762058839</v>
       </c>
       <c r="S2">
-        <v>0.3788216465062628</v>
+        <v>0.001261771512232113</v>
       </c>
       <c r="T2">
-        <v>0.3788216465062628</v>
+        <v>0.001261771512232113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>139.14150334364</v>
+        <v>0.2548253333333333</v>
       </c>
       <c r="H3">
-        <v>139.14150334364</v>
+        <v>0.764476</v>
       </c>
       <c r="I3">
-        <v>0.995266720327071</v>
+        <v>0.00181063274871081</v>
       </c>
       <c r="J3">
-        <v>0.995266720327071</v>
+        <v>0.00181063274871081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N3">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q3">
-        <v>4441.414991003346</v>
+        <v>8.154264906576</v>
       </c>
       <c r="R3">
-        <v>4441.414991003346</v>
+        <v>73.388384159184</v>
       </c>
       <c r="S3">
-        <v>0.2528509425987954</v>
+        <v>0.0001544721681087784</v>
       </c>
       <c r="T3">
-        <v>0.2528509425987954</v>
+        <v>0.0001544721681087784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>139.14150334364</v>
+        <v>0.2548253333333333</v>
       </c>
       <c r="H4">
-        <v>139.14150334364</v>
+        <v>0.764476</v>
       </c>
       <c r="I4">
-        <v>0.995266720327071</v>
+        <v>0.00181063274871081</v>
       </c>
       <c r="J4">
-        <v>0.995266720327071</v>
+        <v>0.00181063274871081</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N4">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q4">
-        <v>6386.657721947441</v>
+        <v>20.81897974968134</v>
       </c>
       <c r="R4">
-        <v>6386.657721947441</v>
+        <v>187.370817747132</v>
       </c>
       <c r="S4">
-        <v>0.3635941312220128</v>
+        <v>0.0003943890683699184</v>
       </c>
       <c r="T4">
-        <v>0.3635941312220128</v>
+        <v>0.0003943890683699184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.661727792144799</v>
+        <v>139.2710926666666</v>
       </c>
       <c r="H5">
-        <v>0.661727792144799</v>
+        <v>417.813278</v>
       </c>
       <c r="I5">
-        <v>0.004733279672928958</v>
+        <v>0.9895750867169325</v>
       </c>
       <c r="J5">
-        <v>0.004733279672928958</v>
+        <v>0.9895750867169325</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N5">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q5">
-        <v>31.64566659656124</v>
+        <v>36402.70647324514</v>
       </c>
       <c r="R5">
-        <v>31.64566659656124</v>
+        <v>327624.3582592062</v>
       </c>
       <c r="S5">
-        <v>0.001801596258020486</v>
+        <v>0.6896029327444108</v>
       </c>
       <c r="T5">
-        <v>0.001801596258020486</v>
+        <v>0.6896029327444108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.661727792144799</v>
+        <v>139.2710926666666</v>
       </c>
       <c r="H6">
-        <v>0.661727792144799</v>
+        <v>417.813278</v>
       </c>
       <c r="I6">
-        <v>0.004733279672928958</v>
+        <v>0.9895750867169325</v>
       </c>
       <c r="J6">
-        <v>0.004733279672928958</v>
+        <v>0.9895750867169325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N6">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q6">
-        <v>21.1224377009708</v>
+        <v>4456.595302268327</v>
       </c>
       <c r="R6">
-        <v>21.1224377009708</v>
+        <v>40109.35772041495</v>
       </c>
       <c r="S6">
-        <v>0.001202506024204748</v>
+        <v>0.08442452466433968</v>
       </c>
       <c r="T6">
-        <v>0.001202506024204748</v>
+        <v>0.0844245246643397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>139.2710926666666</v>
+      </c>
+      <c r="H7">
+        <v>417.813278</v>
+      </c>
+      <c r="I7">
+        <v>0.9895750867169325</v>
+      </c>
+      <c r="J7">
+        <v>0.9895750867169325</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>81.69901900000001</v>
+      </c>
+      <c r="N7">
+        <v>245.097057</v>
+      </c>
+      <c r="O7">
+        <v>0.2178183668945166</v>
+      </c>
+      <c r="P7">
+        <v>0.2178183668945167</v>
+      </c>
+      <c r="Q7">
+        <v>11378.31164592476</v>
+      </c>
+      <c r="R7">
+        <v>102404.8048133228</v>
+      </c>
+      <c r="S7">
+        <v>0.2155476293081819</v>
+      </c>
+      <c r="T7">
+        <v>0.2155476293081819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.212359</v>
+      </c>
+      <c r="H8">
+        <v>3.637077</v>
+      </c>
+      <c r="I8">
+        <v>0.008614280534356691</v>
+      </c>
+      <c r="J8">
+        <v>0.008614280534356693</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>261.380203</v>
+      </c>
+      <c r="N8">
+        <v>784.1406089999999</v>
+      </c>
+      <c r="O8">
+        <v>0.6968677182772199</v>
+      </c>
+      <c r="P8">
+        <v>0.6968677182772199</v>
+      </c>
+      <c r="Q8">
+        <v>316.886641528877</v>
+      </c>
+      <c r="R8">
+        <v>2851.979773759893</v>
+      </c>
+      <c r="S8">
+        <v>0.006003014020577018</v>
+      </c>
+      <c r="T8">
+        <v>0.006003014020577019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.661727792144799</v>
-      </c>
-      <c r="H7">
-        <v>0.661727792144799</v>
-      </c>
-      <c r="I7">
-        <v>0.004733279672928958</v>
-      </c>
-      <c r="J7">
-        <v>0.004733279672928958</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>45.9004507531747</v>
-      </c>
-      <c r="N7">
-        <v>45.9004507531747</v>
-      </c>
-      <c r="O7">
-        <v>0.3653233086127166</v>
-      </c>
-      <c r="P7">
-        <v>0.3653233086127166</v>
-      </c>
-      <c r="Q7">
-        <v>30.37360393534938</v>
-      </c>
-      <c r="R7">
-        <v>30.37360393534938</v>
-      </c>
-      <c r="S7">
-        <v>0.001729177390703724</v>
-      </c>
-      <c r="T7">
-        <v>0.001729177390703724</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.212359</v>
+      </c>
+      <c r="H9">
+        <v>3.637077</v>
+      </c>
+      <c r="I9">
+        <v>0.008614280534356691</v>
+      </c>
+      <c r="J9">
+        <v>0.008614280534356693</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>31.999428</v>
+      </c>
+      <c r="N9">
+        <v>95.998284</v>
+      </c>
+      <c r="O9">
+        <v>0.08531391482826334</v>
+      </c>
+      <c r="P9">
+        <v>0.08531391482826335</v>
+      </c>
+      <c r="Q9">
+        <v>38.794794530652</v>
+      </c>
+      <c r="R9">
+        <v>349.153150775868</v>
+      </c>
+      <c r="S9">
+        <v>0.0007349179958148736</v>
+      </c>
+      <c r="T9">
+        <v>0.0007349179958148738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.212359</v>
+      </c>
+      <c r="H10">
+        <v>3.637077</v>
+      </c>
+      <c r="I10">
+        <v>0.008614280534356691</v>
+      </c>
+      <c r="J10">
+        <v>0.008614280534356693</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>81.69901900000001</v>
+      </c>
+      <c r="N10">
+        <v>245.097057</v>
+      </c>
+      <c r="O10">
+        <v>0.2178183668945166</v>
+      </c>
+      <c r="P10">
+        <v>0.2178183668945167</v>
+      </c>
+      <c r="Q10">
+        <v>99.04854097582101</v>
+      </c>
+      <c r="R10">
+        <v>891.4368687823891</v>
+      </c>
+      <c r="S10">
+        <v>0.001876348517964799</v>
+      </c>
+      <c r="T10">
+        <v>0.001876348517964799</v>
       </c>
     </row>
   </sheetData>
